--- a/docs/鍵盤設計規格_台語ㄅㄆㄇV4.xlsx
+++ b/docs/鍵盤設計規格_台語ㄅㄆㄇV4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75612363-2831-421F-A8C4-B8A4B3417750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77821382-6F0B-4E7C-BD73-C75B6F6944CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="4" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="注音編碼對照表" sheetId="12" r:id="rId1"/>
@@ -24708,8 +24708,8 @@
   </sheetPr>
   <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -25340,8 +25340,8 @@
   </sheetPr>
   <dimension ref="A1:CH69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="27.75"/>
@@ -25360,7 +25360,7 @@
     <col min="75" max="16384" width="7.19921875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:72" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="109"/>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -26824,7 +26824,7 @@
         <v>- xform/h/ㄘ/</v>
       </c>
     </row>
-    <row r="14" spans="1:72" ht="45" customHeight="1">
+    <row r="14" spans="1:72" ht="16.5" customHeight="1">
       <c r="BG14" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
